--- a/biology/Botanique/Hymenophyllum_lanatum/Hymenophyllum_lanatum.xlsx
+++ b/biology/Botanique/Hymenophyllum_lanatum/Hymenophyllum_lanatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hymenophylle laineuse - Hymenophyllum lanatum - est une fougère de la famille des Hyménophyllacées originaire des Antilles.
 Synonymes : Hymenophyllum hirsutum var. lanatum (Fée) Duss, Sphaerocionium lanatum (Fée) Copel.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hymenophyllum lanatum appartient au sous-genre Sphaerocionium.
 Cette espèce a les caractéristiques suivantes :
@@ -550,7 +564,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plutôt épiphyte de forêts pluviales, est présente en Amérique tropicale - Brésil, Colombie,Costa Rica, Équateur, Guatemala, Mexique, Panama, Venezuela - et dans les Caraïbes - Cuba, Dominique, Guadeloupe, Jamaïque -.
 </t>
@@ -581,7 +597,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été collectée une première fois par l'Herminier en 1861 en Guadeloupe, à Sainte Rose.
 </t>
